--- a/medicine/Psychotrope/Davidoff/Davidoff.xlsx
+++ b/medicine/Psychotrope/Davidoff/Davidoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oettinger Davidoff est une entreprise de l'industrie du tabac, acquise en 2008 par le fabricant de tabac britannique Imperial Tobacco (depuis renommé Imperial Brands). Davidoff fabrique et commercialise principalement des cigares, des pipes et des mélanges de tabacs pour pipe ainsi que des accessoires pour fumeurs et des produits de luxe (parfums, maroquinerie, instruments d'écriture, montres, lunettes, café, cognac).
 </t>
@@ -511,7 +523,9 @@
           <t>Groupe Oettinger Davidoff</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un groupement de six marques de tabac distribuées dans le monde entier. Également producteur et importateur, le groupe a son siège à Bâle, en Suisse.
 Il fournit un assortiment de produits directement issus du tabac ainsi que des produits dérivés, à de grandes chaînes de distribution, aux magasins de tabac et à la branche de l'hôtellerie et de la restauration. En Suisse, certaines entreprises du groupe sont également actives dans l'importation et la vente en gros de confiseries.
@@ -545,10 +559,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison Davidoff vit le jour à Genève au début du XXe siècle. Le magasin de tabac ouvert par la famille Davidoff allait devenir une marque de notoriété mondiale.
-En 1925, Zino Davidoff a 19 ans, il se rend en Argentine, puis au Brésil et à Cuba, où il apprend la fabrication des cigares. Cinq ans après, de retour à Genève, il propose à son père de créer une section de cigares de La Havane[2]. Grâce à de solides amitiés, il peut les baptiser de noms prestigieux : ceux des cinq plus célèbres vignobles français. À 65 ans, il vend son entreprise au Dr Ernst Schneider, président du conseil d'administration d'Oettinger IMEX AG jusqu'en 2006[3].
+En 1925, Zino Davidoff a 19 ans, il se rend en Argentine, puis au Brésil et à Cuba, où il apprend la fabrication des cigares. Cinq ans après, de retour à Genève, il propose à son père de créer une section de cigares de La Havane. Grâce à de solides amitiés, il peut les baptiser de noms prestigieux : ceux des cinq plus célèbres vignobles français. À 65 ans, il vend son entreprise au Dr Ernst Schneider, président du conseil d'administration d'Oettinger IMEX AG jusqu'en 2006.
 1875 : Max Oettinger ouvre son premier magasin spécialisé dans les cigares sous le nom de « Habana-Haus » à Bâle.
 1920 : Pour financer son entreprise, Max Oettinger fonde la société anonyme Max Oettinger AG.
 1926 : Les problèmes de paiement de certains clients mettent l'entreprise en difficulté. Les créanciers, dont certains fabricants de tabac, chargent le négociant George Huppuch d'assainir la société. Il stoppe les importations, sources de pertes, vend les magasins de détail, concentre les activités sur le commerce en gros et installe un nouveau siège à la Nauenstrasse, à Bâle (siège actuel du Groupe).
